--- a/Sonoran-data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/Sonoran-data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/lossanna_nmsu_edu/Documents/Documents/02_RestoreNet/RestoreNet/Sonoran-data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1748" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA96F209-A0CC-45CA-8A47-38142C1D367E}"/>
+  <xr:revisionPtr revIDLastSave="1749" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1E8554-A1C8-45A2-A806-4D1BA2F09BF7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2472,16 +2472,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2496,8 +2496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11292840" y="377190"/>
-          <a:ext cx="4352925" cy="2366010"/>
+          <a:off x="10302240" y="784860"/>
+          <a:ext cx="4351020" cy="2390775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2592,9 +2592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2632,7 +2632,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2738,7 +2738,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2880,7 +2880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2932,8 +2932,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A470" sqref="A470"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H441" sqref="H441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sonoran-data/raw/from-Master_species-list-with-native-status_LO.xlsx
+++ b/Sonoran-data/raw/from-Master_species-list-with-native-status_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/lossanna_nmsu_edu/Documents/Documents/02_RestoreNet/RestoreNet/Sonoran-data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1749" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1E8554-A1C8-45A2-A806-4D1BA2F09BF7}"/>
+  <xr:revisionPtr revIDLastSave="1751" documentId="8_{FF5EA2F2-2FF6-42D4-ADD7-A9144DE3C437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{507D0AB6-8F78-44D7-BB8A-237FAEED50D7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6ED14566-95D0-4DF3-9156-CD80DAE02F6C}"/>
   </bookViews>
@@ -2932,8 +2932,8 @@
   <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H441" sqref="H441"/>
+      <pane ySplit="1" topLeftCell="A275" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A298" sqref="A298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6859,7 +6859,7 @@
         <v>444</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="D280" t="s">
         <v>2</v>
@@ -6999,7 +6999,7 @@
         <v>454</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D290" t="s">
         <v>2</v>
